--- a/trunk/poc/social-buzz/doc/TV프로그램.xlsx
+++ b/trunk/poc/social-buzz/doc/TV프로그램.xlsx
@@ -819,9 +819,6 @@
   <si>
     <t>kbs2_princess</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mbs_fallinlove</t>
   </si>
   <si>
     <t>mbs_fallinlove</t>
@@ -1495,6 +1492,10 @@
   </si>
   <si>
     <t>검색 키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbc_fallinlove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1723,6 +1724,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1731,9 +1735,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2112,13 +2113,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>2</v>
@@ -2403,7 +2404,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -2504,7 +2505,7 @@
     </row>
     <row r="10" spans="1:18" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>29</v>
@@ -2551,12 +2552,12 @@
         <v>40773</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>176</v>
@@ -2608,7 +2609,7 @@
     </row>
     <row r="12" spans="1:18" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>177</v>
@@ -2712,7 +2713,7 @@
     </row>
     <row r="14" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -2764,7 +2765,7 @@
     </row>
     <row r="15" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>128</v>
@@ -2814,7 +2815,7 @@
     </row>
     <row r="16" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -2864,7 +2865,7 @@
     </row>
     <row r="17" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>141</v>
@@ -2900,7 +2901,7 @@
         <v>145</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P17" s="9">
         <v>0.111</v>
@@ -2909,12 +2910,12 @@
         <v>40775</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="89.25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>147</v>
@@ -2964,7 +2965,7 @@
     </row>
     <row r="19" spans="1:18" ht="89.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>154</v>
@@ -3014,7 +3015,7 @@
     </row>
     <row r="20" spans="1:18" ht="102" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>183</v>
@@ -3066,7 +3067,7 @@
     </row>
     <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>165</v>
@@ -3116,7 +3117,7 @@
     </row>
     <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>169</v>
@@ -3227,12 +3228,12 @@
       <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
@@ -3251,65 +3252,65 @@
   <sheetData>
     <row r="1" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="F2" s="2">
         <v>1482</v>
@@ -3321,63 +3322,63 @@
         <v>627</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" s="14">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="17">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="F3" s="2">
         <v>1077</v>
@@ -3389,59 +3390,59 @@
         <v>475</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="J3" s="17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>412</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F4" s="2">
         <v>928</v>
@@ -3453,37 +3454,37 @@
         <v>729</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="14">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="J4" s="17">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -3494,16 +3495,16 @@
         <v>203</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="F5" s="2">
         <v>747</v>
@@ -3515,63 +3516,63 @@
         <v>227</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.157</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J5" s="17">
-        <v>0.157</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="F6" s="2">
         <v>694</v>
@@ -3583,37 +3584,37 @@
         <v>295</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="J6" s="17">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -3621,19 +3622,19 @@
     </row>
     <row r="7" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="F7" s="2">
         <v>621</v>
@@ -3645,34 +3646,34 @@
         <v>175</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J7" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -3684,16 +3685,16 @@
         <v>201</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F8" s="2">
         <v>170</v>
@@ -3705,37 +3706,37 @@
         <v>166</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J8" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -3746,16 +3747,16 @@
         <v>199</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="F9" s="2">
         <v>155</v>
@@ -3767,31 +3768,31 @@
         <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J9" s="14">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J9" s="17">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -3804,16 +3805,16 @@
         <v>197</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F10" s="2">
         <v>132</v>
@@ -3825,28 +3826,28 @@
         <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J10" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -3860,16 +3861,16 @@
         <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="F11" s="2">
         <v>17</v>
@@ -3881,31 +3882,31 @@
         <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="17">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -3915,19 +3916,19 @@
     </row>
     <row r="12" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" s="2">
         <v>1513</v>
@@ -3939,25 +3940,25 @@
         <v>1763</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="J12" s="17">
+        <v>321</v>
+      </c>
+      <c r="J12" s="14">
         <v>0.10199999999999999</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -3969,19 +3970,19 @@
     </row>
     <row r="13" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="F13" s="2">
         <v>1025</v>
@@ -3993,31 +3994,31 @@
         <v>1862</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.153</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J13" s="17">
-        <v>0.153</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -4027,19 +4028,19 @@
     </row>
     <row r="14" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F14" s="2">
         <v>1009</v>
@@ -4051,22 +4052,22 @@
         <v>465</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J14" s="17">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -4079,19 +4080,19 @@
     </row>
     <row r="15" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F15" s="2">
         <v>707</v>
@@ -4103,16 +4104,16 @@
         <v>1732</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J15" s="14">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="J15" s="17">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4127,19 +4128,19 @@
     </row>
     <row r="16" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="F16" s="2">
         <v>391</v>
@@ -4151,28 +4152,28 @@
         <v>353</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J16" s="14">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J16" s="17">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -4183,19 +4184,19 @@
     </row>
     <row r="17" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="F17" s="2">
         <v>187</v>
@@ -4207,13 +4208,13 @@
         <v>30</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J17" s="17">
+        <v>232</v>
+      </c>
+      <c r="J17" s="14">
         <v>0.111</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -4229,19 +4230,19 @@
     </row>
     <row r="18" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F18" s="2">
         <v>155</v>
@@ -4253,19 +4254,19 @@
         <v>37</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J18" s="17">
+        <v>253</v>
+      </c>
+      <c r="J18" s="14">
         <v>0.14699999999999999</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4279,19 +4280,19 @@
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="F19" s="2">
         <v>7</v>
@@ -4303,19 +4304,19 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="J19" s="17">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>

--- a/trunk/poc/social-buzz/doc/TV프로그램.xlsx
+++ b/trunk/poc/social-buzz/doc/TV프로그램.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="18315" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="18315" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="프로그램" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="412">
   <si>
     <t>program_id</t>
   </si>
@@ -818,10 +818,6 @@
   </si>
   <si>
     <t>kbs2_princess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mbs_fallinlove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2041,11 +2037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -2113,13 +2109,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>2</v>
@@ -2404,7 +2400,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -2505,7 +2501,7 @@
     </row>
     <row r="10" spans="1:18" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>205</v>
+        <v>411</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>29</v>
@@ -2552,12 +2548,12 @@
         <v>40773</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>176</v>
@@ -2609,7 +2605,7 @@
     </row>
     <row r="12" spans="1:18" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>177</v>
@@ -2713,7 +2709,7 @@
     </row>
     <row r="14" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -2765,7 +2761,7 @@
     </row>
     <row r="15" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>128</v>
@@ -2815,7 +2811,7 @@
     </row>
     <row r="16" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -2865,7 +2861,7 @@
     </row>
     <row r="17" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>141</v>
@@ -2901,7 +2897,7 @@
         <v>145</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P17" s="9">
         <v>0.111</v>
@@ -2910,12 +2906,12 @@
         <v>40775</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="89.25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>147</v>
@@ -2965,7 +2961,7 @@
     </row>
     <row r="19" spans="1:18" ht="89.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>154</v>
@@ -3015,7 +3011,7 @@
     </row>
     <row r="20" spans="1:18" ht="102" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>183</v>
@@ -3067,7 +3063,7 @@
     </row>
     <row r="21" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>165</v>
@@ -3117,7 +3113,7 @@
     </row>
     <row r="22" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>169</v>
@@ -3224,7 +3220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3252,37 +3248,37 @@
   <sheetData>
     <row r="1" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>411</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
@@ -3298,19 +3294,19 @@
     </row>
     <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="F2" s="2">
         <v>1482</v>
@@ -3322,63 +3318,63 @@
         <v>627</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J2" s="14">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="F3" s="2">
         <v>1077</v>
@@ -3390,59 +3386,59 @@
         <v>475</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J3" s="14">
         <v>0.14000000000000001</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F4" s="2">
         <v>928</v>
@@ -3454,37 +3450,37 @@
         <v>729</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J4" s="14">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -3495,16 +3491,16 @@
         <v>203</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="F5" s="2">
         <v>747</v>
@@ -3516,63 +3512,63 @@
         <v>227</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J5" s="14">
         <v>0.157</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="F6" s="2">
         <v>694</v>
@@ -3584,37 +3580,37 @@
         <v>295</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J6" s="14">
         <v>0.17799999999999999</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -3622,19 +3618,19 @@
     </row>
     <row r="7" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="F7" s="2">
         <v>621</v>
@@ -3646,34 +3642,34 @@
         <v>175</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J7" s="14">
         <v>0.12</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -3685,16 +3681,16 @@
         <v>201</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F8" s="2">
         <v>170</v>
@@ -3706,37 +3702,37 @@
         <v>166</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J8" s="14">
         <v>0.15</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -3747,16 +3743,16 @@
         <v>199</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="F9" s="2">
         <v>155</v>
@@ -3768,31 +3764,31 @@
         <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J9" s="14">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -3805,16 +3801,16 @@
         <v>197</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="F10" s="2">
         <v>132</v>
@@ -3826,28 +3822,28 @@
         <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J10" s="14">
         <v>0.25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -3861,16 +3857,16 @@
         <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="F11" s="2">
         <v>17</v>
@@ -3882,31 +3878,31 @@
         <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J11" s="14">
         <v>0.17299999999999999</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -3916,19 +3912,19 @@
     </row>
     <row r="12" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F12" s="2">
         <v>1513</v>
@@ -3940,25 +3936,25 @@
         <v>1763</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J12" s="14">
         <v>0.10199999999999999</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -3970,19 +3966,19 @@
     </row>
     <row r="13" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="F13" s="2">
         <v>1025</v>
@@ -3994,31 +3990,31 @@
         <v>1862</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J13" s="14">
         <v>0.153</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -4028,19 +4024,19 @@
     </row>
     <row r="14" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="F14" s="2">
         <v>1009</v>
@@ -4052,22 +4048,22 @@
         <v>465</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J14" s="14">
         <v>0.14699999999999999</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -4080,19 +4076,19 @@
     </row>
     <row r="15" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F15" s="2">
         <v>707</v>
@@ -4104,16 +4100,16 @@
         <v>1732</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J15" s="14">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4128,19 +4124,19 @@
     </row>
     <row r="16" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="F16" s="2">
         <v>391</v>
@@ -4152,28 +4148,28 @@
         <v>353</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J16" s="14">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -4184,19 +4180,19 @@
     </row>
     <row r="17" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="F17" s="2">
         <v>187</v>
@@ -4208,13 +4204,13 @@
         <v>30</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J17" s="14">
         <v>0.111</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -4230,19 +4226,19 @@
     </row>
     <row r="18" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="F18" s="2">
         <v>155</v>
@@ -4254,19 +4250,19 @@
         <v>37</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J18" s="14">
         <v>0.14699999999999999</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4280,19 +4276,19 @@
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="F19" s="2">
         <v>7</v>
@@ -4304,19 +4300,19 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J19" s="14">
         <v>0.10199999999999999</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
